--- a/lab5/rule_info.xlsx
+++ b/lab5/rule_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelligient_systems\intelligient_systems\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E96B5D-45E0-4B2B-9248-837353821333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8760DBE-7501-4975-8085-45CE92BA13B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,12 +51,6 @@
     <t>Список_аргументов</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Cписок_лог_слагаемых</t>
-  </si>
-  <si>
     <t>Лог_слагаемое</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>Множитель</t>
+  </si>
+  <si>
+    <t>Аргумент</t>
+  </si>
+  <si>
+    <t>Список_лог_слагаемых</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
